--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-ext-person-deceased-date-time.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-ext-person-deceased-date-time.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
